--- a/assets/examples/xlsx/RS0004SimpleExampleFile.a205.xlsx
+++ b/assets/examples/xlsx/RS0004SimpleExampleFile.a205.xlsx
@@ -136,47 +136,52 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A16" shapeId="0">
+      <text>
+        <t>Data group describing product information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the outdoor unit manufacturer</t>
+        <t>Model number of the outdoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Name of the indoor unit manufacturer</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
+        <t>Model number of the indoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Model number of the indoor unit</t>
+        <t>Type of refrigerant</t>
       </text>
     </comment>
     <comment authorId="0" ref="B22" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
     <comment authorId="0" ref="A27" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A28" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -263,7 +268,7 @@
     </comment>
     <comment authorId="0" ref="B2" shapeId="0">
       <text>
-        <t>Data group defining the grid variables for standby performance</t>
+        <t>Data group defining the lookup variables for standby performance</t>
       </text>
     </comment>
     <comment authorId="0" ref="A3" shapeId="0">
@@ -569,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,7 +803,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004</t>
+          <t>ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -806,15 +811,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.description</t>
+          <t>ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0004.description.product_information</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ColdAirInc</t>
         </is>
       </c>
       <c r="E17" s="3" t="n"/>
@@ -822,46 +832,38 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                outdoor_unit_manufacturer</t>
+          <t xml:space="preserve">            outdoor_unit_model_number</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ColdAirInc</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>AC.2019.01</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                outdoor_unit_model_number</t>
+          <t xml:space="preserve">            indoor_unit_manufacturer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AC.2019.01</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>ColdAirInc</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_manufacturer</t>
+          <t xml:space="preserve">            indoor_unit_model_number</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ColdAirInc</t>
+          <t>AC.2019.02</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -869,12 +871,12 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_model_number</t>
+          <t xml:space="preserve">            refrigerant_type</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AC.2019.02</t>
+          <t>R410A</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>
@@ -882,66 +884,63 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                refrigerant_type</t>
+          <t xml:space="preserve">            compressor_type</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R410A</t>
+          <t>SCROLL</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                compressor_type</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SCROLL</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance</t>
         </is>
       </c>
       <c r="E23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        compressor_control_method</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">            compressor_control_method</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>DYNAMIC</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">        cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.25</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -952,32 +951,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_standby</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -989,12 +971,12 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1020,7 +1002,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2175,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/examples/xlsx/RS0004SimpleExampleFile.a205.xlsx
+++ b/assets/examples/xlsx/RS0004SimpleExampleFile.a205.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,24 +29,57 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
     </font>
+    <font/>
     <font>
+      <b val="1"/>
       <color rgb="000070C0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808B96"/>
+        <bgColor rgb="00808B96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000529B"/>
+        <bgColor rgb="0000529B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0001AED8"/>
+        <bgColor rgb="0001AED8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,27 +87,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="Title" xfId="1"/>
+    <cellStyle hidden="0" name="Heading" xfId="2"/>
+    <cellStyle hidden="0" name="Schema" xfId="3"/>
+    <cellStyle hidden="0" name="Value" xfId="4"/>
+    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -86,102 +147,122 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>ASHRAE 205 standard version</t>
+        <t>ASHRAE 205 schema version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
-        <t>ASHRAE 205 schema version</t>
+        <t>Representation specification identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
-        <t>Representation specification identifier</t>
+        <t>Free-form description of equipment (suitable for display)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
-        <t>Free-form description of equipment (suitable for display)</t>
+        <t>Unique equipment identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B8" shapeId="0">
       <text>
-        <t>Unique equipment identifier</t>
+        <t>Date of publication</t>
       </text>
     </comment>
     <comment authorId="0" ref="B9" shapeId="0">
       <text>
-        <t>Date of publication</t>
+        <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
-        <t>Integer version identifier for the data in the representation</t>
+        <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B11" shapeId="0">
       <text>
-        <t>Free-form identification of the source of this data</t>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B12" shapeId="0">
       <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B13" shapeId="0">
-      <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A16" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
+      <text>
+        <t>*Representation Specification* Data Group</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A14" shapeId="0">
+      <text>
+        <t>Data group describing product and rating information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B16" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B17" shapeId="0">
       <text>
-        <t>Name of the outdoor unit manufacturer</t>
+        <t>Model number of the outdoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Name of the indoor unit manufacturer</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
+        <t>Model number of the indoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Model number of the indoor unit</t>
+        <t>Refrigerant used in the chiller</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
-      <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
+    <comment authorId="0" ref="A22" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Method used to control different speeds of the compressor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A25" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A26" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A27" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -574,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,384 +663,528 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="50"/>
-    <col customWidth="1" max="3" min="3" width="31"/>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="50"/>
+    <col customWidth="1" max="3" min="3" style="1" width="31"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>RS0004: Air-to-Air Direct Expansion Refrigerant Coil System</t>
         </is>
       </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Data Group</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Data Element</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASHRAE205</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>standard_version</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>PPR2</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PPR2</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>RS0004</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RS_ID</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RS0004</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Simple Example File</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Simple Example File</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>2019-09-13T00:00Z</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>data_timestamp</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2019-09-13T00:00Z</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Committee</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Example File - not fur use un simulation</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>This is a simple example of a JSON file for RS0002 - this file should not be used for simulation</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Committee</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>disclaimer</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Example File - not fur use un simulation</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>This is a simple example of a JSON file for RS0002 - this file should not be used for simulation</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
-    </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>ColdAirInc</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        outdoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>AC.2019.01</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="6" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>ColdAirInc</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        indoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>AC.2019.02</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        refrigerant_type</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R410A</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        compressor_type</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>SCROLL</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    compressor_control_method</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.product_information</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            outdoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ColdAirInc</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            outdoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>AC.2019.01</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            indoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ColdAirInc</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            indoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>AC.2019.02</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            refrigerant_type</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>R410A</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            compressor_type</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SCROLL</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        compressor_control_method</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>DYNAMIC</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n"/>
-    </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>$performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -967,19 +1192,23 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
       <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1"/>
+    <hyperlink ref="C26" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -991,1164 +1220,1276 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>outdoor_coil_entering_dry_bulb_temperature</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>indoor_coil_entering_relative_humidity</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>indoor_coil_entering_dry_bulb_temperature</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>indoor_coil_air_mass_flow_rate</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>compressor_sequence_number</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>ambient_absolute_air_pressure</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>gross_total_cooling_capacity</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>gross_sensible_cooling_capacity</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>gross_cooling_power</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>kg/s</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="5" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="5" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="D8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="5" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="5" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="5" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="5" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="D12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="5" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="E13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>3.4</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="5" t="n">
         <v>2.788</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="D14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="5" t="n">
         <v>3.348</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="5" t="n">
         <v>0.47</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="E15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>3.4</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="5" t="n">
         <v>3.332</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="5" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="5" t="n">
         <v>302.55</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="5" t="n">
         <v>0.47</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="E17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="5" t="n">
         <v>0.64</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="D18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="5" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="E19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="5" t="n">
         <v>0.64</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="D20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="5" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="E21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="5" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="D22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="5" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="E23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="5" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="D24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="5" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="E25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="5" t="n">
         <v>2.666</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="5" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="D26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G26" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="5" t="n">
         <v>3.038</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="5" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="E27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="5" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="5" t="n">
         <v>308.15</v>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="5" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="E29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="5" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="D30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G30" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="5" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="E31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G31" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="5" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="D32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G32" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="5" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="E33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G33" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="5" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="D34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G34" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="5" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="E35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="5" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="5" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="E37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G37" s="5" t="n">
         <v>2.9</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="5" t="n">
         <v>2.61</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="5" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="n">
         <v>300.15</v>
       </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="D38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G38" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" s="5" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="5" t="n">
         <v>0.72</v>
       </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="E39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G39" s="5" t="n">
         <v>2.9</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="5" t="n">
         <v>2.9</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="5" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="5" t="n">
         <v>313.75</v>
       </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="n">
         <v>302.15</v>
       </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="D40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>101.325</v>
+      </c>
+      <c r="G40" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="5" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -2164,86 +2505,191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>outdoor_coil_environment_dry_bulb_temperature</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>gross_power</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="5" t="n">
         <v>255.37</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="5" t="n">
         <v>283.15</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="5" t="n">
         <v>283.65</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="5" t="n">
         <v>310.93</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
